--- a/FIA/OCR_Ficha_COLGATE/dados_extraidos.xlsx
+++ b/FIA/OCR_Ficha_COLGATE/dados_extraidos.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O2"/>
+  <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,120 +436,136 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Escova de dentes própria</t>
+          <t>Escova_Propria</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Uso de pasta de dentes com fluor</t>
+          <t>Pasta_Com_Fluor</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Frequência da escovação</t>
+          <t>Frequencia_Escovacao</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Consumo de bebida alcoolica</t>
+          <t>Uso_Alcool</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Uso de tabaco</t>
+          <t>Freq_Alcool</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Prática de alguma religião</t>
+          <t>Uso_Tabaco</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>Frequência do consumo (diário)</t>
+          <t>Freq_Tabaco</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>Frequência do consumo (semanal)</t>
+          <t>Religiao</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>Frequência do consumo (mensal)</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>Frequência do consumo (eventos sociais)</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>Frequência do consumo (nunca)</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>Frequência (nunca)</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>Frequência (anualmente)</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>Frequência (mensalmente)</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
-        <is>
-          <t>Frequência (semanalmente)</t>
+          <t>Freq_Religiao</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr"/>
-      <c r="H2" t="inlineStr"/>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="inlineStr"/>
-      <c r="N2" t="inlineStr"/>
-      <c r="O2" t="inlineStr"/>
+      <c r="A2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B2" t="n">
+        <v>2</v>
+      </c>
+      <c r="C2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="n">
+        <v>4</v>
+      </c>
+      <c r="F2" t="n">
+        <v>2</v>
+      </c>
+      <c r="G2" t="n">
+        <v>4</v>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
+      </c>
+      <c r="I2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" t="n">
+        <v>2</v>
+      </c>
+      <c r="C3" t="n">
+        <v>2</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1</v>
+      </c>
+      <c r="E3" t="n">
+        <v>4</v>
+      </c>
+      <c r="F3" t="n">
+        <v>2</v>
+      </c>
+      <c r="G3" t="n">
+        <v>4</v>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
+      </c>
+      <c r="I3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="n">
+        <v>1</v>
+      </c>
+      <c r="C4" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" t="n">
+        <v>2</v>
+      </c>
+      <c r="E4" t="n">
+        <v>4</v>
+      </c>
+      <c r="F4" t="n">
+        <v>2</v>
+      </c>
+      <c r="G4" t="n">
+        <v>4</v>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
+      </c>
+      <c r="I4" t="n">
+        <v>3</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/FIA/OCR_Ficha_COLGATE/dados_extraidos.xlsx
+++ b/FIA/OCR_Ficha_COLGATE/dados_extraidos.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I4"/>
+  <dimension ref="A1:I12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -567,6 +567,238 @@
         <v>3</v>
       </c>
     </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>2</v>
+      </c>
+      <c r="B5" t="n">
+        <v>2</v>
+      </c>
+      <c r="C5" t="n">
+        <v>2</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1</v>
+      </c>
+      <c r="E5" t="n">
+        <v>4</v>
+      </c>
+      <c r="F5" t="n">
+        <v>2</v>
+      </c>
+      <c r="G5" t="n">
+        <v>4</v>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
+      </c>
+      <c r="I5" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>2</v>
+      </c>
+      <c r="B6" t="n">
+        <v>2</v>
+      </c>
+      <c r="C6" t="n">
+        <v>2</v>
+      </c>
+      <c r="D6" t="n">
+        <v>1</v>
+      </c>
+      <c r="E6" t="n">
+        <v>4</v>
+      </c>
+      <c r="F6" t="n">
+        <v>2</v>
+      </c>
+      <c r="G6" t="n">
+        <v>4</v>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
+      </c>
+      <c r="I6" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>2</v>
+      </c>
+      <c r="B7" t="n">
+        <v>1</v>
+      </c>
+      <c r="C7" t="n">
+        <v>2</v>
+      </c>
+      <c r="D7" t="n">
+        <v>2</v>
+      </c>
+      <c r="E7" t="n">
+        <v>4</v>
+      </c>
+      <c r="F7" t="n">
+        <v>2</v>
+      </c>
+      <c r="G7" t="n">
+        <v>4</v>
+      </c>
+      <c r="H7" t="n">
+        <v>2</v>
+      </c>
+      <c r="I7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>2</v>
+      </c>
+      <c r="B8" t="n">
+        <v>1</v>
+      </c>
+      <c r="C8" t="n">
+        <v>2</v>
+      </c>
+      <c r="D8" t="n">
+        <v>2</v>
+      </c>
+      <c r="E8" t="n">
+        <v>4</v>
+      </c>
+      <c r="F8" t="n">
+        <v>2</v>
+      </c>
+      <c r="G8" t="n">
+        <v>4</v>
+      </c>
+      <c r="H8" t="n">
+        <v>2</v>
+      </c>
+      <c r="I8" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>2</v>
+      </c>
+      <c r="B9" t="n">
+        <v>1</v>
+      </c>
+      <c r="C9" t="n">
+        <v>2</v>
+      </c>
+      <c r="D9" t="n">
+        <v>2</v>
+      </c>
+      <c r="E9" t="n">
+        <v>4</v>
+      </c>
+      <c r="F9" t="n">
+        <v>2</v>
+      </c>
+      <c r="G9" t="n">
+        <v>4</v>
+      </c>
+      <c r="H9" t="n">
+        <v>2</v>
+      </c>
+      <c r="I9" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>2</v>
+      </c>
+      <c r="B10" t="n">
+        <v>1</v>
+      </c>
+      <c r="C10" t="n">
+        <v>2</v>
+      </c>
+      <c r="D10" t="n">
+        <v>2</v>
+      </c>
+      <c r="E10" t="n">
+        <v>4</v>
+      </c>
+      <c r="F10" t="n">
+        <v>2</v>
+      </c>
+      <c r="G10" t="n">
+        <v>4</v>
+      </c>
+      <c r="H10" t="n">
+        <v>2</v>
+      </c>
+      <c r="I10" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>2</v>
+      </c>
+      <c r="B11" t="n">
+        <v>1</v>
+      </c>
+      <c r="C11" t="n">
+        <v>2</v>
+      </c>
+      <c r="D11" t="n">
+        <v>2</v>
+      </c>
+      <c r="E11" t="n">
+        <v>4</v>
+      </c>
+      <c r="F11" t="n">
+        <v>2</v>
+      </c>
+      <c r="G11" t="n">
+        <v>4</v>
+      </c>
+      <c r="H11" t="n">
+        <v>2</v>
+      </c>
+      <c r="I11" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>2</v>
+      </c>
+      <c r="B12" t="n">
+        <v>1</v>
+      </c>
+      <c r="C12" t="n">
+        <v>2</v>
+      </c>
+      <c r="D12" t="n">
+        <v>2</v>
+      </c>
+      <c r="E12" t="n">
+        <v>4</v>
+      </c>
+      <c r="F12" t="n">
+        <v>2</v>
+      </c>
+      <c r="G12" t="n">
+        <v>4</v>
+      </c>
+      <c r="H12" t="n">
+        <v>2</v>
+      </c>
+      <c r="I12" t="n">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
